--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/10/seed5/result_data_RandomForest.xlsx
@@ -592,7 +592,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.048999999999992</v>
+        <v>-7.517499999999993</v>
       </c>
     </row>
     <row r="12">
@@ -603,7 +603,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.181</v>
+        <v>-11.3786</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.771300000000005</v>
+        <v>-8.029200000000005</v>
       </c>
     </row>
     <row r="24">
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.203699999999994</v>
+        <v>-8.128699999999998</v>
       </c>
     </row>
     <row r="29">
@@ -883,10 +883,10 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.5926</v>
+        <v>-13.1992</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.349799999999997</v>
+        <v>-8.178599999999998</v>
       </c>
     </row>
     <row r="33">
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.8869</v>
+        <v>-7.869999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-11.927</v>
+        <v>-12.4061</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -967,7 +967,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.4111</v>
+        <v>-12.49539999999999</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1026,7 +1026,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.821799999999991</v>
+        <v>-8.932699999999992</v>
       </c>
     </row>
     <row r="43">
@@ -1079,7 +1079,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.64069999999999</v>
+        <v>-14.63669999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1191,10 +1191,10 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.451</v>
+        <v>-12.5197</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.193800000000005</v>
+        <v>-8.086700000000006</v>
       </c>
     </row>
     <row r="55">
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.5899</v>
+        <v>-13.96159999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-12.0906</v>
+        <v>-12.357</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1401,7 +1401,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.438</v>
+        <v>-11.9468</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1443,7 +1443,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-12.1814</v>
+        <v>-11.9806</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-12.1428</v>
+        <v>-12.23280000000001</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1796,7 +1796,7 @@
         <v>-10.47</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.375599999999993</v>
+        <v>-8.501199999999994</v>
       </c>
     </row>
     <row r="98">
@@ -1821,10 +1821,10 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.7297</v>
+        <v>-12.0548</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.543799999999994</v>
+        <v>-8.432999999999993</v>
       </c>
     </row>
     <row r="100">
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.7007</v>
+        <v>-7.8097</v>
       </c>
     </row>
     <row r="102">
@@ -1891,7 +1891,7 @@
         <v>7.61</v>
       </c>
       <c r="C104" t="n">
-        <v>-12.71970000000001</v>
+        <v>-12.65660000000001</v>
       </c>
       <c r="D104" t="n">
         <v>-7.34</v>
